--- a/tut05/output/0401EE35.xlsx
+++ b/tut05/output/0401EE35.xlsx
@@ -550,28 +550,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.653061224489797</v>
+        <v>8.65</v>
       </c>
       <c r="C6" t="n">
-        <v>7.886363636363637</v>
+        <v>7.89</v>
       </c>
       <c r="D6" t="n">
-        <v>8.978260869565217</v>
+        <v>8.98</v>
       </c>
       <c r="E6" t="n">
-        <v>9.173913043478262</v>
+        <v>9.17</v>
       </c>
       <c r="F6" t="n">
         <v>9</v>
       </c>
       <c r="G6" t="n">
-        <v>9.525</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="H6" t="n">
-        <v>9.813953488372093</v>
+        <v>9.81</v>
       </c>
       <c r="I6" t="n">
-        <v>9.315789473684211</v>
+        <v>9.32</v>
       </c>
     </row>
     <row r="7">
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.653061224489797</v>
+        <v>8.65</v>
       </c>
       <c r="C8" t="n">
-        <v>8.290322580645162</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>8.517985611510792</v>
+        <v>8.52</v>
       </c>
       <c r="E8" t="n">
-        <v>8.68108108108108</v>
+        <v>8.68</v>
       </c>
       <c r="F8" t="n">
-        <v>8.736607142857142</v>
+        <v>8.74</v>
       </c>
       <c r="G8" t="n">
-        <v>8.856060606060606</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="H8" t="n">
-        <v>8.990228013029316</v>
+        <v>8.99</v>
       </c>
       <c r="I8" t="n">
-        <v>9.026086956521739</v>
+        <v>9.029999999999999</v>
       </c>
     </row>
   </sheetData>
